--- a/meta/en/1-2-2.xlsx
+++ b/meta/en/1-2-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -103,21 +103,6 @@
     <t>1.2.2: Proportion of men, women and children of all ages living in poverty in all its dimensions according to national definitions</t>
   </si>
   <si>
-    <t xml:space="preserve"> National Statistical Committee of the Kyrgyz Republic (Household Statistics Division)</t>
-  </si>
-  <si>
-    <t>Kerimalieva N.K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Proportion of men, women and children of all ages living in poverty in all its dimensions (multidimensional poverty) is when an individual is unable to meet his basic needs in accordance with social norms and generally accepted standards.</t>
   </si>
   <si>
@@ -156,18 +141,41 @@
   </si>
   <si>
     <t xml:space="preserve">KR National SDG Reporting Platform:  https://sustainabledevelopment-kyrgyzstan.github.io </t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)</t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,25 +242,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -565,7 +577,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,8 +627,8 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -624,7 +636,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -632,7 +644,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -640,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -648,7 +660,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -670,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -714,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -722,7 +734,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,7 +742,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,7 +756,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,7 +764,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,7 +780,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
